--- a/HyperRail/Admin/JuniorDesign_Block2Checkoff.xlsx
+++ b/HyperRail/Admin/JuniorDesign_Block2Checkoff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Brusind\Documents\GitHub\PersonalProjects\HyperRail\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A043D00D-F538-4604-BBAB-274FA887B5C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E234A4-3D6A-4BDF-A2A1-17C494347879}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2370" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{D8F5391A-C4FB-4A41-B72E-AA830B05E3FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8F5391A-C4FB-4A41-B72E-AA830B05E3FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 7" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
   <si>
     <t>Does the block work? (0 or 25pts)</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Max F</t>
   </si>
   <si>
-    <t>Block works for different Gcode commands (radial / linear, etc) and works for different codes</t>
-  </si>
-  <si>
     <t>Anthony N</t>
   </si>
   <si>
@@ -84,15 +81,6 @@
     <t>Triet N</t>
   </si>
   <si>
-    <t>Block is functional, outputs Gcode to Python GUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code is well documented and can be understood </t>
-  </si>
-  <si>
-    <t>Code documentation was of high quality and each function was well defined</t>
-  </si>
-  <si>
     <t>Ryan C</t>
   </si>
   <si>
@@ -102,30 +90,6 @@
     <t>Rene N</t>
   </si>
   <si>
-    <t>Block worked as expected, output a gcoded file from drawn inputs</t>
-  </si>
-  <si>
-    <t>Block was fairly simple in implementation, worked for multiple inputs</t>
-  </si>
-  <si>
-    <t>Not much documentation available, code had some annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Of the documentation that was available it was of high quality </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block worked as expected, gcode output was drawn for user approval and output as commands </t>
-  </si>
-  <si>
-    <t>Block demonstrated multiple uses for different Gcode commands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code was fairly well documented with good descriptions </t>
-  </si>
-  <si>
-    <t>Documentation was of high quality and very readable</t>
-  </si>
-  <si>
     <t>Zachery M</t>
   </si>
   <si>
@@ -265,6 +229,30 @@
   </si>
   <si>
     <t>Documentation is of high quality and has descriptions for all major functions</t>
+  </si>
+  <si>
+    <t>Block functions by detecting edges within user provided images</t>
+  </si>
+  <si>
+    <t>Edge detection operates on different images and is able to output matrix of image detection per pixel</t>
+  </si>
+  <si>
+    <t>End effector is shown to be robust and able to handle a diverse set of tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End effector has numerous cost saving / efficiency modifications and is shown to operate </t>
+  </si>
+  <si>
+    <t>Documentation is provided with all major dimensions along with important measurments (hole pitch, sizing, etc)</t>
+  </si>
+  <si>
+    <t>Documentation is of high quality and provided in mechanical drawing format exported from Inventor for each part</t>
+  </si>
+  <si>
+    <t>Good effort toward a power supply implementation for 24V to 5V step down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block is shown to theoretically work for multiple </t>
   </si>
 </sst>
 </file>
@@ -780,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E33F50-261D-49DC-83B2-0B7607276124}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -844,29 +832,23 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="8">
-        <v>25</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C2" s="8"/>
       <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="12">
-        <v>25</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G2" s="12"/>
       <c r="I2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="15">
-        <v>25</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K2" s="15"/>
       <c r="M2" s="16" t="s">
         <v>0</v>
       </c>
@@ -877,29 +859,23 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8">
-        <v>50</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="12">
-        <v>45</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G3" s="12"/>
       <c r="I3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="15">
-        <v>45</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K3" s="15"/>
       <c r="M3" s="16" t="s">
         <v>4</v>
       </c>
@@ -909,30 +885,20 @@
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8">
-        <v>25</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="12">
-        <v>20</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G4" s="12"/>
       <c r="I4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="15">
-        <v>25</v>
-      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
       <c r="M4" s="16" t="s">
         <v>5</v>
       </c>
@@ -942,30 +908,20 @@
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8">
-        <v>50</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="12">
-        <v>50</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G5" s="12"/>
       <c r="I5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="15">
-        <v>50</v>
-      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
       <c r="M5" s="16" t="s">
         <v>6</v>
       </c>
@@ -997,15 +953,15 @@
     <row r="9" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B850D-A9AF-4784-B994-AC90982576EE}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1073,21 +1029,21 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G2" s="12"/>
       <c r="I2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K2" s="15"/>
       <c r="M2" s="16"/>
@@ -1098,21 +1054,21 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G3" s="12"/>
       <c r="I3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K3" s="15"/>
       <c r="M3" s="16"/>
@@ -1123,21 +1079,21 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G4" s="12"/>
       <c r="I4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K4" s="15"/>
       <c r="M4" s="16"/>
@@ -1148,21 +1104,21 @@
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G5" s="12"/>
       <c r="I5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K5" s="15"/>
       <c r="M5" s="16"/>
@@ -1214,7 +1170,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1277,28 +1233,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G2" s="12"/>
       <c r="I2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K2" s="15"/>
       <c r="M2" s="40" t="s">
         <v>0</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O2" s="42"/>
     </row>
@@ -1307,28 +1263,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G3" s="12"/>
       <c r="I3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K3" s="15"/>
       <c r="M3" s="40" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="41" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="O3" s="42"/>
     </row>
@@ -1337,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="10" t="s">
@@ -1349,14 +1305,14 @@
         <v>5</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K4" s="15"/>
       <c r="M4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="41" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="O4" s="42"/>
     </row>
@@ -1365,7 +1321,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="10" t="s">
@@ -1377,14 +1333,14 @@
         <v>6</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K5" s="15"/>
       <c r="M5" s="40" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="41" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="O5" s="42"/>
     </row>
@@ -1413,19 +1369,19 @@
     <row r="9" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M9" s="46"/>
       <c r="N9" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1501,14 +1457,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G2" s="12">
         <v>25</v>
@@ -1517,14 +1473,14 @@
         <v>0</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K2" s="15"/>
       <c r="M2" s="40" t="s">
         <v>0</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="O2" s="42"/>
     </row>
@@ -1533,14 +1489,14 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G3" s="12">
         <v>50</v>
@@ -1549,14 +1505,14 @@
         <v>4</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K3" s="15"/>
       <c r="M3" s="40" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="41" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="O3" s="42"/>
     </row>
@@ -1565,14 +1521,14 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G4" s="12">
         <v>25</v>
@@ -1581,14 +1537,14 @@
         <v>5</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K4" s="15"/>
       <c r="M4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="41" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="O4" s="42"/>
     </row>
@@ -1597,14 +1553,14 @@
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G5" s="12">
         <v>45</v>
@@ -1613,14 +1569,14 @@
         <v>6</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K5" s="15"/>
       <c r="M5" s="40" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="41" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="O5" s="42"/>
     </row>
@@ -1651,19 +1607,19 @@
     <row r="9" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M9" s="46"/>
       <c r="N9" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/HyperRail/Admin/JuniorDesign_Block2Checkoff.xlsx
+++ b/HyperRail/Admin/JuniorDesign_Block2Checkoff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Brusind\Documents\GitHub\PersonalProjects\HyperRail\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E234A4-3D6A-4BDF-A2A1-17C494347879}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC48F04-2969-4F98-AC4C-620EF2CFBC02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8F5391A-C4FB-4A41-B72E-AA830B05E3FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D8F5391A-C4FB-4A41-B72E-AA830B05E3FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 7" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
   <si>
     <t>Does the block work? (0 or 25pts)</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Block is shown to provide voltage and sensor feedback theoretically through shunt resistors and amplifiers</t>
   </si>
   <si>
-    <t>Block details are shown and necessary equations were provided to calculatte for different parameters on the design</t>
-  </si>
-  <si>
     <t>Documentation was made available and showed the details of the block</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>Block functions by detecting edges within user provided images</t>
   </si>
   <si>
-    <t>Edge detection operates on different images and is able to output matrix of image detection per pixel</t>
-  </si>
-  <si>
     <t>End effector is shown to be robust and able to handle a diverse set of tools</t>
   </si>
   <si>
@@ -252,7 +246,31 @@
     <t>Good effort toward a power supply implementation for 24V to 5V step down</t>
   </si>
   <si>
-    <t xml:space="preserve">Block is shown to theoretically work for multiple </t>
+    <t xml:space="preserve">Block is shown to theoretically work for a diverse set of input sources and multiple simulations are shown for load conditions </t>
+  </si>
+  <si>
+    <t>Documenation is available through the WeBench simulator tool as well as schematics and PCB layout through Eagle</t>
+  </si>
+  <si>
+    <t>Documentation could be better considering the amount of time and resources available for this kind of work</t>
+  </si>
+  <si>
+    <t>Documentation is available through code comments and walkthroughs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docuementation could be improved to more industry standard (short explanation of the different filters/techniques used in the code) </t>
+  </si>
+  <si>
+    <t>Edge detection operates on different images and is able to output matrix of image detection per pixel. Still needs some work to achieve depth/range calculation</t>
+  </si>
+  <si>
+    <t>Block details are shown and necessary equations were provided to calculate for different parameters on the design</t>
+  </si>
+  <si>
+    <t>Documenation for homing sequence is provided, limit switch hardware has limited documentation (off-branded product)</t>
+  </si>
+  <si>
+    <t>The documentation that was available was high quality and detailed the functionality of the block</t>
   </si>
 </sst>
 </file>
@@ -768,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E33F50-261D-49DC-83B2-0B7607276124}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -832,23 +850,29 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="C2" s="8">
+        <v>20</v>
+      </c>
       <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="G2" s="12">
+        <v>25</v>
+      </c>
       <c r="I2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="K2" s="15">
+        <v>25</v>
+      </c>
       <c r="M2" s="16" t="s">
         <v>0</v>
       </c>
@@ -859,23 +883,29 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="C3" s="8">
+        <v>40</v>
+      </c>
       <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="G3" s="12">
+        <v>50</v>
+      </c>
       <c r="I3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="15"/>
+        <v>74</v>
+      </c>
+      <c r="K3" s="15">
+        <v>40</v>
+      </c>
       <c r="M3" s="16" t="s">
         <v>4</v>
       </c>
@@ -885,20 +915,30 @@
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="8">
+        <v>25</v>
+      </c>
       <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="G4" s="12">
+        <v>25</v>
+      </c>
       <c r="I4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
+      <c r="J4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="15">
+        <v>25</v>
+      </c>
       <c r="M4" s="16" t="s">
         <v>5</v>
       </c>
@@ -908,20 +948,30 @@
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="8">
+        <v>40</v>
+      </c>
       <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="G5" s="12">
+        <v>45</v>
+      </c>
       <c r="I5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="15">
+        <v>45</v>
+      </c>
       <c r="M5" s="16" t="s">
         <v>6</v>
       </c>
@@ -973,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B850D-A9AF-4784-B994-AC90982576EE}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1029,23 +1079,29 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="C2" s="8">
+        <v>25</v>
+      </c>
       <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="12">
+        <v>25</v>
+      </c>
       <c r="I2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="K2" s="15">
+        <v>25</v>
+      </c>
       <c r="M2" s="16"/>
       <c r="N2" s="17"/>
     </row>
@@ -1054,23 +1110,29 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="C3" s="8">
+        <v>45</v>
+      </c>
       <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="G3" s="12">
+        <v>45</v>
+      </c>
       <c r="I3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="K3" s="15">
+        <v>50</v>
+      </c>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
     </row>
@@ -1079,23 +1141,29 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="C4" s="8">
+        <v>25</v>
+      </c>
       <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="G4" s="12">
+        <v>25</v>
+      </c>
       <c r="I4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="K4" s="15">
+        <v>25</v>
+      </c>
       <c r="M4" s="16"/>
       <c r="N4" s="17"/>
     </row>
@@ -1104,23 +1172,29 @@
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="C5" s="8">
+        <v>45</v>
+      </c>
       <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="G5" s="12">
+        <v>45</v>
+      </c>
       <c r="I5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="K5" s="15">
+        <v>45</v>
+      </c>
       <c r="M5" s="16"/>
       <c r="N5" s="17"/>
     </row>
@@ -1169,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125DA6F1-2F27-48E3-A13D-321396200580}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1235,28 +1309,36 @@
       <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="8">
+        <v>25</v>
+      </c>
       <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="12">
+        <v>25</v>
+      </c>
       <c r="I2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="15">
+        <v>25</v>
+      </c>
       <c r="M2" s="40" t="s">
         <v>0</v>
       </c>
       <c r="N2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="42"/>
+      <c r="O2" s="42">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1265,28 +1347,36 @@
       <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8">
+        <v>50</v>
+      </c>
       <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="12">
+        <v>50</v>
+      </c>
       <c r="I3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="15">
+        <v>50</v>
+      </c>
       <c r="M3" s="40" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="42"/>
+      <c r="O3" s="42">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1295,26 +1385,36 @@
       <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8">
+        <v>25</v>
+      </c>
       <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="12">
+        <v>25</v>
+      </c>
       <c r="I4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="15">
+        <v>25</v>
+      </c>
       <c r="M4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="42"/>
+      <c r="O4" s="42">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1323,26 +1423,36 @@
       <c r="B5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8">
+        <v>50</v>
+      </c>
       <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="12">
+        <v>50</v>
+      </c>
       <c r="I5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="15">
+        <v>50</v>
+      </c>
       <c r="M5" s="40" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="42"/>
+      <c r="O5" s="42">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:15" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -1393,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938F47F0-50FA-48EC-BA57-085EA2B646E8}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1569,9 @@
       <c r="B2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="8">
+        <v>25</v>
+      </c>
       <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1475,14 +1587,18 @@
       <c r="J2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="15">
+        <v>25</v>
+      </c>
       <c r="M2" s="40" t="s">
         <v>0</v>
       </c>
       <c r="N2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="42"/>
+      <c r="O2" s="42">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1491,7 +1607,9 @@
       <c r="B3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8">
+        <v>45</v>
+      </c>
       <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1507,14 +1625,18 @@
       <c r="J3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="15">
+        <v>50</v>
+      </c>
       <c r="M3" s="40" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="42"/>
+      <c r="O3" s="42">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1523,7 +1645,9 @@
       <c r="B4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8">
+        <v>25</v>
+      </c>
       <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1539,14 +1663,18 @@
       <c r="J4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="15">
+        <v>25</v>
+      </c>
       <c r="M4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="42"/>
+      <c r="O4" s="42">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1555,7 +1683,9 @@
       <c r="B5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8">
+        <v>45</v>
+      </c>
       <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
@@ -1571,14 +1701,18 @@
       <c r="J5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="15">
+        <v>45</v>
+      </c>
       <c r="M5" s="40" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="42"/>
+      <c r="O5" s="42">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:15" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
